--- a/outputs/CORVALLIS2.xlsx
+++ b/outputs/CORVALLIS2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains information relevant to contributing to the documentation, such as details about the project, how to get started, and links to specific files like `contribute.md`. Abi, who prefers comprehensive information processing, would find this detailed information helpful. Additionally, Abi is motivated to accomplish their tasks, and finding documentation about contributions aligns with their goal of making a documentation contribution.</t>
+Why: The page contains a section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize this as a step toward making a documentation contribution.</t>
         </is>
       </c>
     </row>
@@ -434,35 +434,35 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides clear directions and specific links to documentation files such as `README.md`, `contribute.md`, and other relevant files. Abi's motivation to accomplish their task and their comprehensive information processing style will guide them to look for these links. The presence of labeled links that are straightforward and relevant to documentation contributions will make Abi feel confident in knowing what to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear section titled "Want to help?" with a direct reference to the "Contribute.md" file, which is likely to contain information about documentation contributions. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize this as a step toward making a documentation contribution. The page is straightforward and provides relevant information, making it easy for Abi to know what to do next.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides comprehensive information about the project, how to contribute, and links to specific documentation files like `contribute.md` and `README.md`. Abi, who prefers detailed and structured information, will find these resources helpful in understanding how to make a documentation contribution. The presence of clear instructions and relevant links will help Abi feel confident that they are making progress toward their goal.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page does provide a reference to the "Contribute.md" file, it does not explicitly state that this file contains information about documentation contributions. Abi, who has low computer self-efficacy and prefers comprehensive information, might not be confident that she is making progress toward her goal without more explicit guidance. Additionally, the page contains a lot of information, which might be overwhelming and make it difficult for Abi to determine if she has found all the necessary information.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page lists various .md files, including `README.md` and `contribute.md`, which are commonly targeted for documentation contributions. Abi, who is motivated to accomplish their task and prefers comprehensive information processing, would recognize that editing one of these .md files is a logical step toward making a documentation contribution. The clear labeling and the presence of these files on the page make it evident that contributing to them would be a part of achieving the overall use case.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page lists several .md files, it does not explicitly indicate that making a documentation contribution to the first .md file is a step toward achieving the overall use case. Abi, who has low computer self-efficacy and prefers comprehensive information, might not be confident that this is the correct step without more explicit guidance. Additionally, the page contains a lot of information, which might make it difficult for Abi to determine the correct action to take.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page lists the .md files clearly, and the presence of file names like `README.md` and `contribute.md` suggests they are documentation files. Abi, who prefers comprehensive information processing, will likely recognize that clicking on these files is a necessary step to view and edit the documentation. Additionally, Abi's motivation to accomplish their task will guide them to interact with these files. The layout and labeling on the page are straightforward enough for Abi to understand what to do next.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or context about what clicking on the first .md file will accomplish. Given Abi's low computer self-efficacy, she might be hesitant to click on the file without knowing what will happen. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. This lack of guidance and clarity might prevent her from confidently taking this action.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking the first .md file is "Deploying.md," which contains detailed instructions on deployment rather than how to contribute to documentation. Abi, who prefers comprehensive information and has low computer self-efficacy, will likely feel unsure about whether they have made progress toward their goal of making a documentation contribution. The content is highly technical and related to deployment, which may overwhelm Abi and make them question if they are on the right path. Therefore, Abi might not feel confident that they are making progress toward their goal and may not get the information they need for documentation contribution.</t>
+Why: After clicking on the first .md file, Abi lands on a page with detailed deployment instructions. However, this page does not provide information about making a documentation contribution, which is Abi's goal. Given Abi's comprehensive information processing style, she would not feel confident that she is making progress toward her goal. Additionally, the technical nature of the content might overwhelm Abi, who has low computer self-efficacy, making it difficult for her to determine if she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi has landed on is filled with technical deployment instructions, which might overwhelm Abi and make them uncertain about how to proceed with making a documentation contribution. The "Edit" button is present, but Abi, who has low computer self-efficacy and prefers comprehensive information, might feel unsure about clicking it without more context or instructions. Abi may not feel confident that clicking "Edit" is the correct next step for contributing to the documentation, as the current page's content is focused on deployment, not documentation contributions.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or context about what clicking the "Edit" button will accomplish. Given Abi's low computer self-efficacy, she might be hesitant to click on the "Edit" button without knowing what will happen. Additionally, Abi prefers process-oriented learning and step-by-step instructions, which are not provided here. This lack of guidance and clarity might prevent her from confidently taking this action.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The new page Abi lands on after clicking the "Edit" button is different from the previous one and contains a lot of information. While it does have sections on contributing and documentation, the sheer volume of information and the different layout may overwhelm Abi, who prefers comprehensive information processing and has low computer self-efficacy. Abi might not immediately recognize that they have landed on the correct page for making a documentation contribution and may feel uncertain about their progress toward their goal. The presence of various other sections and links could confuse Abi, making it difficult for them to determine if they have done the right thing and are on the right path.</t>
+Why: After clicking the "Edit" button, Abi lands on a page that appears to be a different repository with information about JabRef Bibliography Management. This page does not provide any indication that Abi is making progress toward her goal of making a documentation contribution to the first .md file. The content is unrelated to her task, and there is no clear guidance or relevant information about documentation contributions. Given Abi's comprehensive information processing style and low computer self-efficacy, she would likely feel confused and uncertain about her progress.</t>
         </is>
       </c>
     </row>
